--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_8_22.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>980933.5077492273</v>
+        <v>973024.2220858854</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8449809.474284522</v>
+        <v>8729695.796941048</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4184533.616287897</v>
+        <v>4135159.406663878</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10062288.31244521</v>
+        <v>10063546.69206734</v>
       </c>
     </row>
     <row r="11">
@@ -662,10 +662,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>127.0784597613395</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>290.5286403308938</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>50.4315177721688</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>323.9918595228954</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>150.3831047853864</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>165.0140383262353</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>129.0246247964035</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>106.9049828570325</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1148,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -1184,22 +1184,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>346.0353239327454</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>104.6390067882883</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>105.1174443271893</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>92.47445699814261</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>310.8331573064578</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>76.67473720020064</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>196.9899243971805</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.94048797913204</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>260.1478989722385</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1850,19 +1850,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>126.7498226612768</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.8584581187521</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2017,7 +2017,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>52.48797850547358</v>
+        <v>28.18795678412369</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>141.167062152907</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>96.50675189249574</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>113.5103646250808</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>163.689844124971</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>186.2120483577854</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -2998,25 +2998,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>114.2656173771023</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>196.9899243971807</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881769</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>6.380068175847704</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,16 +3238,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>81.13901576159108</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>86.63890788798707</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>74.75769145492379</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3487,10 +3487,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>49.54974036904216</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>290.556878027607</v>
+        <v>95.80077002143486</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>163.6898441249713</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>74.75769145492383</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>406.8708392937401</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -3800,7 +3800,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>345.1900823576976</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>17.25588147840211</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3904,13 +3904,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>69.96969900783397</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3955,7 +3955,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3986,13 +3986,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>339.0399185806805</v>
       </c>
       <c r="H44" t="n">
-        <v>217.1682448170089</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.915471247702</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C2" t="n">
-        <v>1491.915471247702</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D2" t="n">
-        <v>1491.915471247702</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.515311311824</v>
+        <v>2013.546485980902</v>
       </c>
     </row>
     <row r="3">
@@ -4398,34 +4398,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>104.8839088629592</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>104.8839088629592</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>104.8839088629592</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>104.8839088629592</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>104.8839088629592</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>104.8839088629592</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>104.8839088629592</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610022</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>286.5323736931989</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.944160717209</v>
+        <v>1609.244883920707</v>
       </c>
       <c r="C5" t="n">
-        <v>1177.981643776797</v>
+        <v>1240.282366980295</v>
       </c>
       <c r="D5" t="n">
-        <v>1177.981643776797</v>
+        <v>882.0166683735445</v>
       </c>
       <c r="E5" t="n">
-        <v>792.1933911785532</v>
+        <v>882.0166683735445</v>
       </c>
       <c r="F5" t="n">
-        <v>381.2074863889456</v>
+        <v>471.030763583937</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4565,25 +4565,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>325.1460354086931</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>464.4746912499463</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1096.192502233258</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1723.500170293104</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2232.849924657333</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
@@ -4595,22 +4595,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2330.447103240089</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1999.384215896518</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1999.384215896518</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>1999.384215896518</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781331</v>
+        <v>1609.244883920707</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>967.3646662469702</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>792.9116369658432</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>643.9772273045919</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>484.7397722991365</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>121.5508014837215</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>332.0575713317425</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>972.6029207988471</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1640.147320825857</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2636.288039261394</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2615.176139663581</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2465.709350526216</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2268.720054686303</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>2040.581267197469</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1805.429158965726</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1551.191802237525</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1343.340302031992</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1135.580003267038</v>
       </c>
     </row>
     <row r="7">
@@ -4726,40 +4726,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>154.9909114159743</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>339.8239063167927</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>545.0935070360306</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>750.9168718721348</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>925.0117672607337</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>1050.459343859349</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>887.1968164855321</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V7" t="n">
-        <v>184.2708856551155</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
         <v>53.94298182036445</v>
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2432.949222346331</v>
+        <v>1001.709638973434</v>
       </c>
       <c r="C8" t="n">
-        <v>2063.986705405919</v>
+        <v>1001.709638973434</v>
       </c>
       <c r="D8" t="n">
-        <v>1705.721006799168</v>
+        <v>1001.709638973434</v>
       </c>
       <c r="E8" t="n">
-        <v>1319.932754200924</v>
+        <v>1001.709638973434</v>
       </c>
       <c r="F8" t="n">
-        <v>908.9468494113166</v>
+        <v>590.7237341838262</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="H8" t="n">
         <v>173.6359524202537</v>
@@ -4802,25 +4802,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>157.7403863883401</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>297.0690422295933</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>928.786853212905</v>
       </c>
       <c r="N8" t="n">
-        <v>1475.49687913695</v>
+        <v>1556.094521272752</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2103.255726039829</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2532.570772379123</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4832,22 +4832,22 @@
         <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2540.93405351505</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2540.93405351505</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="V8" t="n">
-        <v>2540.93405351505</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="W8" t="n">
-        <v>2540.93405351505</v>
+        <v>1391.848970949246</v>
       </c>
       <c r="X8" t="n">
-        <v>2540.93405351505</v>
+        <v>1391.848970949246</v>
       </c>
       <c r="Y8" t="n">
-        <v>2540.93405351505</v>
+        <v>1001.709638973434</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>502.03063798307</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.514064314702</v>
+        <v>1067.230262346898</v>
       </c>
       <c r="N9" t="n">
         <v>1432.170805967367</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>651.4366193059393</v>
+        <v>817.2204653049812</v>
       </c>
       <c r="C10" t="n">
-        <v>482.5004363780324</v>
+        <v>817.2204653049812</v>
       </c>
       <c r="D10" t="n">
-        <v>482.5004363780324</v>
+        <v>667.1038258926454</v>
       </c>
       <c r="E10" t="n">
-        <v>482.5004363780324</v>
+        <v>519.1907323102523</v>
       </c>
       <c r="F10" t="n">
-        <v>482.5004363780324</v>
+        <v>519.1907323102523</v>
       </c>
       <c r="G10" t="n">
-        <v>313.8935913734158</v>
+        <v>350.5838873056357</v>
       </c>
       <c r="H10" t="n">
-        <v>159.6389482731809</v>
+        <v>196.3292442054008</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>817.2204653049812</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>817.2204653049812</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>817.2204653049812</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>817.2204653049812</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>817.2204653049812</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>817.2204653049812</v>
       </c>
       <c r="Y10" t="n">
-        <v>833.085084136179</v>
+        <v>817.2204653049812</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I11" t="n">
         <v>66.5121164321834</v>
@@ -5051,13 +5051,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5072,19 +5072,19 @@
         <v>3215.315153136265</v>
       </c>
       <c r="U11" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V11" t="n">
-        <v>3215.315153136265</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W11" t="n">
-        <v>3215.315153136265</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X11" t="n">
-        <v>3121.906610713899</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y11" t="n">
-        <v>2731.767278738087</v>
+        <v>1590.514489367197</v>
       </c>
     </row>
     <row r="12">
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
         <v>176.0213023927779</v>
@@ -5118,46 +5118,46 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>628.5134590629166</v>
+        <v>163.837793613838</v>
       </c>
       <c r="C13" t="n">
-        <v>459.5772761350097</v>
+        <v>163.837793613838</v>
       </c>
       <c r="D13" t="n">
-        <v>382.1280466398575</v>
+        <v>163.837793613838</v>
       </c>
       <c r="E13" t="n">
-        <v>234.2149530574644</v>
+        <v>163.837793613838</v>
       </c>
       <c r="F13" t="n">
-        <v>234.2149530574644</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G13" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H13" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I13" t="n">
         <v>66.5121164321834</v>
@@ -5224,25 +5224,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1837.464090846021</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1548.361223971664</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1548.361223971664</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W13" t="n">
-        <v>1258.944053934704</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X13" t="n">
-        <v>1030.954503036686</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y13" t="n">
-        <v>810.1619238931563</v>
+        <v>163.837793613838</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1959.379186075721</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C14" t="n">
-        <v>1590.416669135309</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D14" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E14" t="n">
         <v>1232.150970528558</v>
@@ -5273,55 +5273,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3278.191187286815</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3072.213439671037</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U14" t="n">
-        <v>3072.213439671037</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V14" t="n">
-        <v>3072.213439671037</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W14" t="n">
-        <v>2719.444784400922</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="X14" t="n">
-        <v>2345.979026139843</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="Y14" t="n">
-        <v>2345.979026139843</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5425,13 +5425,13 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1959.379186075721</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C17" t="n">
-        <v>1590.416669135309</v>
+        <v>552.8079389392135</v>
       </c>
       <c r="D17" t="n">
-        <v>1232.150970528558</v>
+        <v>194.542240332463</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810553</v>
@@ -5540,25 +5540,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U17" t="n">
-        <v>3072.213439671037</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V17" t="n">
-        <v>3072.213439671037</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W17" t="n">
-        <v>2719.444784400922</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X17" t="n">
-        <v>2345.979026139843</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y17" t="n">
-        <v>2345.979026139843</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="18">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1091.613680441807</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C19" t="n">
-        <v>922.6774975139006</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D19" t="n">
-        <v>772.5608581015648</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E19" t="n">
-        <v>624.6477645191717</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F19" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959802</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H19" t="n">
         <v>163.837793613838</v>
@@ -5695,28 +5695,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U19" t="n">
-        <v>1615.697475415547</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V19" t="n">
-        <v>1615.697475415547</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W19" t="n">
-        <v>1326.280305378586</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="X19" t="n">
-        <v>1326.280305378586</v>
+        <v>1155.517642110232</v>
       </c>
       <c r="Y19" t="n">
-        <v>1273.262145272047</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143013</v>
@@ -5738,13 +5738,13 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G20" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839441</v>
@@ -5756,13 +5756,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193956</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
         <v>4075.973927750058</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>877.1197344942216</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C22" t="n">
-        <v>708.1835515663147</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="D22" t="n">
-        <v>558.0669121539789</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="E22" t="n">
-        <v>410.1538185715858</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839441</v>
@@ -5935,25 +5935,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1956.343466104704</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1796.967499402969</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>1507.550329366009</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>1279.560778467991</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>1058.768199324461</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="23">
@@ -5966,49 +5966,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>722.4071781934679</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1586.925993846823</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2917.269290763411</v>
+        <v>3942.370854773035</v>
       </c>
       <c r="C25" t="n">
-        <v>2917.269290763411</v>
+        <v>3773.434671845128</v>
       </c>
       <c r="D25" t="n">
-        <v>2917.269290763411</v>
+        <v>3623.318032432792</v>
       </c>
       <c r="E25" t="n">
-        <v>2917.269290763411</v>
+        <v>3475.404938850399</v>
       </c>
       <c r="F25" t="n">
-        <v>2917.269290763411</v>
+        <v>3328.514991352489</v>
       </c>
       <c r="G25" t="n">
-        <v>2917.269290763411</v>
+        <v>3160.812154727208</v>
       </c>
       <c r="H25" t="n">
-        <v>2917.269290763411</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="I25" t="n">
         <v>2917.269290763411</v>
@@ -6169,28 +6169,28 @@
         <v>4778.05172241972</v>
       </c>
       <c r="R25" t="n">
-        <v>4688.221265177248</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S25" t="n">
-        <v>4496.535381004074</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="T25" t="n">
-        <v>4274.7687655736</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="U25" t="n">
-        <v>3985.665898699243</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="V25" t="n">
-        <v>3730.981410493357</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="W25" t="n">
-        <v>3441.564240456396</v>
+        <v>4488.634552382759</v>
       </c>
       <c r="X25" t="n">
-        <v>3213.574689558379</v>
+        <v>4260.645001484742</v>
       </c>
       <c r="Y25" t="n">
-        <v>3098.917755593651</v>
+        <v>4039.852422341212</v>
       </c>
     </row>
     <row r="26">
@@ -6203,22 +6203,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839441</v>
@@ -6227,16 +6227,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>818.2062848686767</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1682.725100522031</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193956</v>
+        <v>2593.249184644074</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420603</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750058</v>
@@ -6257,19 +6257,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
@@ -6336,7 +6336,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>264.4972173763013</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C28" t="n">
         <v>95.56103444839441</v>
@@ -6409,25 +6409,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1768.250487965527</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1546.483872535053</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1257.381005660696</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1002.696517454809</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>713.2793474178487</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>485.2897965198314</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>264.4972173763013</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551625</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
@@ -6458,7 +6458,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
@@ -6467,31 +6467,31 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604874</v>
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6573,7 +6573,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>192.8867116300491</v>
+        <v>3942.370854773035</v>
       </c>
       <c r="C31" t="n">
-        <v>192.8867116300491</v>
+        <v>3773.434671845128</v>
       </c>
       <c r="D31" t="n">
-        <v>192.8867116300491</v>
+        <v>3623.318032432792</v>
       </c>
       <c r="E31" t="n">
-        <v>192.8867116300491</v>
+        <v>3475.404938850399</v>
       </c>
       <c r="F31" t="n">
-        <v>192.8867116300491</v>
+        <v>3328.514991352489</v>
       </c>
       <c r="G31" t="n">
-        <v>192.8867116300491</v>
+        <v>3160.812154727208</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>4688.221265177248</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>4688.221265177248</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>4688.221265177248</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384228</v>
+        <v>4688.221265177248</v>
       </c>
       <c r="V31" t="n">
-        <v>909.2731541783409</v>
+        <v>4688.221265177248</v>
       </c>
       <c r="W31" t="n">
-        <v>619.8559841413803</v>
+        <v>4572.801449644821</v>
       </c>
       <c r="X31" t="n">
-        <v>391.866433243363</v>
+        <v>4344.811898746804</v>
       </c>
       <c r="Y31" t="n">
-        <v>192.8867116300491</v>
+        <v>4124.019319603274</v>
       </c>
     </row>
     <row r="32">
@@ -6695,34 +6695,34 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>932.5990189467745</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1797.117834600129</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2330.649739272054</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>2877.428556330836</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
         <v>4667.761053946815</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
@@ -6810,7 +6810,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3092.649987000256</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C34" t="n">
-        <v>2923.713804072349</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D34" t="n">
-        <v>2917.269290763412</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E34" t="n">
-        <v>2917.269290763412</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F34" t="n">
-        <v>2917.269290763412</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G34" t="n">
-        <v>2917.269290763412</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H34" t="n">
-        <v>2917.269290763412</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T34" t="n">
-        <v>4556.285106989247</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U34" t="n">
-        <v>4267.18224011489</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V34" t="n">
-        <v>4012.497751909003</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="W34" t="n">
-        <v>3723.080581872043</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="X34" t="n">
-        <v>3495.091030974026</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y34" t="n">
-        <v>3274.298451830496</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2022.066722926593</v>
+        <v>1745.759626099227</v>
       </c>
       <c r="C35" t="n">
-        <v>1653.104205986181</v>
+        <v>1376.797109158816</v>
       </c>
       <c r="D35" t="n">
         <v>1294.838507379431</v>
@@ -6926,61 +6926,61 @@
         <v>498.064349991579</v>
       </c>
       <c r="G35" t="n">
-        <v>82.99189983657547</v>
+        <v>82.99189983657546</v>
       </c>
       <c r="H35" t="n">
-        <v>82.99189983657547</v>
+        <v>82.99189983657546</v>
       </c>
       <c r="I35" t="n">
-        <v>82.99189983657547</v>
+        <v>82.99189983657546</v>
       </c>
       <c r="J35" t="n">
-        <v>271.8710307956009</v>
+        <v>439.2766798159539</v>
       </c>
       <c r="K35" t="n">
-        <v>884.427229457584</v>
+        <v>1094.000011951253</v>
       </c>
       <c r="L35" t="n">
-        <v>1335.461442705993</v>
+        <v>1545.034225199662</v>
       </c>
       <c r="M35" t="n">
-        <v>1868.993347377917</v>
+        <v>2078.566129871587</v>
       </c>
       <c r="N35" t="n">
-        <v>2415.7721644367</v>
+        <v>2625.344946930369</v>
       </c>
       <c r="O35" t="n">
-        <v>2918.744635316037</v>
+        <v>3128.317417809706</v>
       </c>
       <c r="P35" t="n">
-        <v>3632.099722762983</v>
+        <v>3567.040467088729</v>
       </c>
       <c r="Q35" t="n">
-        <v>4090.577925271971</v>
+        <v>4025.518669597717</v>
       </c>
       <c r="R35" t="n">
-        <v>4149.594991828773</v>
+        <v>4149.594991828772</v>
       </c>
       <c r="S35" t="n">
-        <v>4149.594991828773</v>
+        <v>4039.304323355867</v>
       </c>
       <c r="T35" t="n">
-        <v>3943.617244212996</v>
+        <v>3833.32657574009</v>
       </c>
       <c r="U35" t="n">
-        <v>3856.103195841291</v>
+        <v>3579.796099013926</v>
       </c>
       <c r="V35" t="n">
-        <v>3525.040308497721</v>
+        <v>3248.733211670355</v>
       </c>
       <c r="W35" t="n">
-        <v>3172.271653227606</v>
+        <v>2895.964556400241</v>
       </c>
       <c r="X35" t="n">
-        <v>2798.805894966526</v>
+        <v>2522.498798139161</v>
       </c>
       <c r="Y35" t="n">
-        <v>2408.666562990715</v>
+        <v>2132.359466163349</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>101.9991914350375</v>
       </c>
       <c r="I36" t="n">
-        <v>82.99189983657547</v>
+        <v>82.99189983657546</v>
       </c>
       <c r="J36" t="n">
         <v>176.6691693271928</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>158.5047194880136</v>
+        <v>789.0406415059568</v>
       </c>
       <c r="C37" t="n">
-        <v>158.5047194880136</v>
+        <v>789.0406415059568</v>
       </c>
       <c r="D37" t="n">
-        <v>158.5047194880136</v>
+        <v>789.0406415059568</v>
       </c>
       <c r="E37" t="n">
-        <v>158.5047194880136</v>
+        <v>641.1275479235637</v>
       </c>
       <c r="F37" t="n">
-        <v>158.5047194880136</v>
+        <v>494.2376004256533</v>
       </c>
       <c r="G37" t="n">
-        <v>158.5047194880136</v>
+        <v>326.5347638003723</v>
       </c>
       <c r="H37" t="n">
-        <v>158.5047194880136</v>
+        <v>180.3175770182301</v>
       </c>
       <c r="I37" t="n">
-        <v>82.99189983657547</v>
+        <v>82.99189983657546</v>
       </c>
       <c r="J37" t="n">
         <v>128.114532283511</v>
@@ -7120,25 +7120,25 @@
         <v>1853.943874250413</v>
       </c>
       <c r="S37" t="n">
-        <v>1662.257990077239</v>
+        <v>1853.943874250413</v>
       </c>
       <c r="T37" t="n">
-        <v>1440.491374646765</v>
+        <v>1853.943874250413</v>
       </c>
       <c r="U37" t="n">
-        <v>1151.388507772409</v>
+        <v>1564.841007376056</v>
       </c>
       <c r="V37" t="n">
-        <v>896.7040195665217</v>
+        <v>1310.15651917017</v>
       </c>
       <c r="W37" t="n">
-        <v>607.2868495295611</v>
+        <v>1020.739349133209</v>
       </c>
       <c r="X37" t="n">
-        <v>379.2972986315438</v>
+        <v>970.6891063361966</v>
       </c>
       <c r="Y37" t="n">
-        <v>158.5047194880136</v>
+        <v>970.6891063361966</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2315.558518914075</v>
+        <v>1745.759626099227</v>
       </c>
       <c r="C38" t="n">
-        <v>1946.596001973663</v>
+        <v>1376.797109158815</v>
       </c>
       <c r="D38" t="n">
-        <v>1588.330303366913</v>
+        <v>1018.531410552064</v>
       </c>
       <c r="E38" t="n">
-        <v>1202.542050768668</v>
+        <v>632.7431579538202</v>
       </c>
       <c r="F38" t="n">
-        <v>791.5561459790608</v>
+        <v>221.7572531642126</v>
       </c>
       <c r="G38" t="n">
-        <v>376.4836958240573</v>
+        <v>221.7572531642126</v>
       </c>
       <c r="H38" t="n">
-        <v>82.99189983657547</v>
+        <v>124.9887985971067</v>
       </c>
       <c r="I38" t="n">
-        <v>82.99189983657547</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="J38" t="n">
         <v>271.8710307956009</v>
       </c>
       <c r="K38" t="n">
-        <v>605.6904044854474</v>
+        <v>926.5943629309004</v>
       </c>
       <c r="L38" t="n">
-        <v>1056.724617733856</v>
+        <v>1377.628576179309</v>
       </c>
       <c r="M38" t="n">
-        <v>2035.274920563685</v>
+        <v>1911.160480851234</v>
       </c>
       <c r="N38" t="n">
-        <v>2944.544726279773</v>
+        <v>2457.939297910016</v>
       </c>
       <c r="O38" t="n">
-        <v>3447.51719715911</v>
+        <v>2960.911768789353</v>
       </c>
       <c r="P38" t="n">
-        <v>3842.291563516289</v>
+        <v>3674.266856236299</v>
       </c>
       <c r="Q38" t="n">
-        <v>4090.577925271971</v>
+        <v>4090.577925271969</v>
       </c>
       <c r="R38" t="n">
-        <v>4149.594991828773</v>
+        <v>4149.594991828772</v>
       </c>
       <c r="S38" t="n">
-        <v>4149.594991828773</v>
+        <v>4039.304323355866</v>
       </c>
       <c r="T38" t="n">
-        <v>4149.594991828773</v>
+        <v>3833.326575740089</v>
       </c>
       <c r="U38" t="n">
-        <v>4149.594991828773</v>
+        <v>3579.796099013925</v>
       </c>
       <c r="V38" t="n">
-        <v>3818.532104485203</v>
+        <v>3248.733211670354</v>
       </c>
       <c r="W38" t="n">
-        <v>3465.763449215088</v>
+        <v>2895.96455640024</v>
       </c>
       <c r="X38" t="n">
-        <v>3092.297690954008</v>
+        <v>2522.49879813916</v>
       </c>
       <c r="Y38" t="n">
-        <v>2702.158358978197</v>
+        <v>2132.359466163348</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>958.0236378855008</v>
+        <v>958.0236378855016</v>
       </c>
       <c r="C39" t="n">
-        <v>783.5706086043738</v>
+        <v>783.5706086043746</v>
       </c>
       <c r="D39" t="n">
-        <v>634.6361989431225</v>
+        <v>634.6361989431234</v>
       </c>
       <c r="E39" t="n">
-        <v>475.3987439376669</v>
+        <v>475.3987439376679</v>
       </c>
       <c r="F39" t="n">
-        <v>328.8641859645519</v>
+        <v>328.8641859645529</v>
       </c>
       <c r="G39" t="n">
-        <v>192.50108579717</v>
+        <v>192.5010857971709</v>
       </c>
       <c r="H39" t="n">
-        <v>101.9991914350375</v>
+        <v>101.9991914350378</v>
       </c>
       <c r="I39" t="n">
-        <v>82.99189983657547</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="J39" t="n">
-        <v>176.6691693271928</v>
+        <v>176.6691693271931</v>
       </c>
       <c r="K39" t="n">
-        <v>414.9333683075398</v>
+        <v>414.9333683075404</v>
       </c>
       <c r="L39" t="n">
-        <v>781.6315286202051</v>
+        <v>781.6315286202062</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.907853842521</v>
+        <v>1228.907853842522</v>
       </c>
       <c r="N39" t="n">
         <v>1702.430897396976</v>
       </c>
       <c r="O39" t="n">
-        <v>2113.39217681503</v>
+        <v>2113.392176815031</v>
       </c>
       <c r="P39" t="n">
-        <v>2423.891768291133</v>
+        <v>2423.891768291134</v>
       </c>
       <c r="Q39" t="n">
-        <v>2581.533325937733</v>
+        <v>2581.533325937734</v>
       </c>
       <c r="R39" t="n">
-        <v>2581.388972530248</v>
+        <v>2581.38897253025</v>
       </c>
       <c r="S39" t="n">
-        <v>2451.951086023728</v>
+        <v>2451.95108602373</v>
       </c>
       <c r="T39" t="n">
-        <v>2259.308085701584</v>
+        <v>2259.308085701585</v>
       </c>
       <c r="U39" t="n">
-        <v>2031.240238836</v>
+        <v>2031.240238836001</v>
       </c>
       <c r="V39" t="n">
-        <v>1796.088130604257</v>
+        <v>1796.088130604258</v>
       </c>
       <c r="W39" t="n">
-        <v>1541.850773876055</v>
+        <v>1541.850773876056</v>
       </c>
       <c r="X39" t="n">
-        <v>1333.999273670523</v>
+        <v>1333.999273670524</v>
       </c>
       <c r="Y39" t="n">
-        <v>1126.238974905569</v>
+        <v>1126.23897490557</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.99189983657547</v>
+        <v>158.5047194880136</v>
       </c>
       <c r="C40" t="n">
-        <v>82.99189983657547</v>
+        <v>158.5047194880136</v>
       </c>
       <c r="D40" t="n">
-        <v>82.99189983657547</v>
+        <v>158.5047194880136</v>
       </c>
       <c r="E40" t="n">
-        <v>82.99189983657547</v>
+        <v>158.5047194880136</v>
       </c>
       <c r="F40" t="n">
-        <v>82.99189983657547</v>
+        <v>158.5047194880136</v>
       </c>
       <c r="G40" t="n">
-        <v>82.99189983657547</v>
+        <v>158.5047194880136</v>
       </c>
       <c r="H40" t="n">
-        <v>82.99189983657547</v>
+        <v>158.5047194880136</v>
       </c>
       <c r="I40" t="n">
-        <v>82.99189983657547</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="J40" t="n">
         <v>128.114532283511</v>
@@ -7354,28 +7354,28 @@
         <v>1943.774331492885</v>
       </c>
       <c r="R40" t="n">
-        <v>1943.774331492885</v>
+        <v>1853.943874250413</v>
       </c>
       <c r="S40" t="n">
-        <v>1752.088447319711</v>
+        <v>1662.257990077239</v>
       </c>
       <c r="T40" t="n">
-        <v>1530.321831889237</v>
+        <v>1440.491374646765</v>
       </c>
       <c r="U40" t="n">
-        <v>1241.218965014881</v>
+        <v>1151.388507772409</v>
       </c>
       <c r="V40" t="n">
-        <v>986.5344768089939</v>
+        <v>896.7040195665217</v>
       </c>
       <c r="W40" t="n">
-        <v>697.1173067720333</v>
+        <v>607.2868495295611</v>
       </c>
       <c r="X40" t="n">
-        <v>469.127755874016</v>
+        <v>379.2972986315438</v>
       </c>
       <c r="Y40" t="n">
-        <v>248.3351767304859</v>
+        <v>158.5047194880136</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2315.558518914075</v>
+        <v>2319.650323317826</v>
       </c>
       <c r="C41" t="n">
-        <v>1946.596001973663</v>
+        <v>1950.687806377414</v>
       </c>
       <c r="D41" t="n">
-        <v>1588.330303366913</v>
+        <v>1592.422107770664</v>
       </c>
       <c r="E41" t="n">
-        <v>1202.542050768668</v>
+        <v>1206.633855172419</v>
       </c>
       <c r="F41" t="n">
-        <v>791.5561459790608</v>
+        <v>795.6479503828118</v>
       </c>
       <c r="G41" t="n">
         <v>380.5755002278082</v>
       </c>
       <c r="H41" t="n">
-        <v>82.99189983657547</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="I41" t="n">
-        <v>82.99189983657547</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="J41" t="n">
-        <v>271.8710307956009</v>
+        <v>439.2766798159539</v>
       </c>
       <c r="K41" t="n">
-        <v>926.5943629309004</v>
+        <v>773.0960535058005</v>
       </c>
       <c r="L41" t="n">
-        <v>1377.628576179309</v>
+        <v>1224.130266754209</v>
       </c>
       <c r="M41" t="n">
-        <v>1911.160480851234</v>
+        <v>2202.680569584038</v>
       </c>
       <c r="N41" t="n">
-        <v>2457.939297910016</v>
+        <v>2749.45938664282</v>
       </c>
       <c r="O41" t="n">
-        <v>2960.911768789353</v>
+        <v>3252.431857522157</v>
       </c>
       <c r="P41" t="n">
-        <v>3674.266856236299</v>
+        <v>3647.206223879336</v>
       </c>
       <c r="Q41" t="n">
-        <v>4090.577925271971</v>
+        <v>4090.577925271969</v>
       </c>
       <c r="R41" t="n">
-        <v>4149.594991828773</v>
+        <v>4149.594991828772</v>
       </c>
       <c r="S41" t="n">
-        <v>4149.594991828773</v>
+        <v>4149.594991828772</v>
       </c>
       <c r="T41" t="n">
-        <v>4149.594991828773</v>
+        <v>4149.594991828772</v>
       </c>
       <c r="U41" t="n">
-        <v>4149.594991828773</v>
+        <v>4149.594991828772</v>
       </c>
       <c r="V41" t="n">
-        <v>3818.532104485203</v>
+        <v>3818.532104485201</v>
       </c>
       <c r="W41" t="n">
-        <v>3465.763449215088</v>
+        <v>3469.855253618839</v>
       </c>
       <c r="X41" t="n">
-        <v>3092.297690954008</v>
+        <v>3096.38949535776</v>
       </c>
       <c r="Y41" t="n">
-        <v>2702.158358978197</v>
+        <v>2706.250163381948</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>958.0236378855008</v>
+        <v>958.0236378855005</v>
       </c>
       <c r="C42" t="n">
-        <v>783.5706086043738</v>
+        <v>783.5706086043735</v>
       </c>
       <c r="D42" t="n">
-        <v>634.6361989431225</v>
+        <v>634.6361989431223</v>
       </c>
       <c r="E42" t="n">
-        <v>475.3987439376669</v>
+        <v>475.3987439376668</v>
       </c>
       <c r="F42" t="n">
-        <v>328.8641859645519</v>
+        <v>328.8641859645518</v>
       </c>
       <c r="G42" t="n">
-        <v>192.50108579717</v>
+        <v>192.5010857971699</v>
       </c>
       <c r="H42" t="n">
         <v>101.9991914350375</v>
       </c>
       <c r="I42" t="n">
-        <v>82.99189983657547</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="J42" t="n">
         <v>176.6691693271928</v>
@@ -7521,7 +7521,7 @@
         <v>2259.308085701584</v>
       </c>
       <c r="U42" t="n">
-        <v>2031.240238836</v>
+        <v>2031.240238835999</v>
       </c>
       <c r="V42" t="n">
         <v>1796.088130604257</v>
@@ -7530,7 +7530,7 @@
         <v>1541.850773876055</v>
       </c>
       <c r="X42" t="n">
-        <v>1333.999273670523</v>
+        <v>1333.999273670522</v>
       </c>
       <c r="Y42" t="n">
         <v>1126.238974905569</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>230.9049934189686</v>
+        <v>250.6947364618565</v>
       </c>
       <c r="C43" t="n">
-        <v>230.9049934189686</v>
+        <v>250.6947364618565</v>
       </c>
       <c r="D43" t="n">
-        <v>230.9049934189686</v>
+        <v>250.6947364618565</v>
       </c>
       <c r="E43" t="n">
-        <v>82.99189983657547</v>
+        <v>250.6947364618565</v>
       </c>
       <c r="F43" t="n">
-        <v>82.99189983657547</v>
+        <v>250.6947364618565</v>
       </c>
       <c r="G43" t="n">
-        <v>82.99189983657547</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="H43" t="n">
-        <v>82.99189983657547</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="I43" t="n">
-        <v>82.99189983657547</v>
+        <v>82.99189983657543</v>
       </c>
       <c r="J43" t="n">
         <v>128.114532283511</v>
@@ -7591,28 +7591,28 @@
         <v>1943.774331492885</v>
       </c>
       <c r="R43" t="n">
-        <v>1943.774331492885</v>
+        <v>1873.097867848608</v>
       </c>
       <c r="S43" t="n">
-        <v>1752.088447319711</v>
+        <v>1681.411983675434</v>
       </c>
       <c r="T43" t="n">
-        <v>1530.321831889237</v>
+        <v>1459.645368244961</v>
       </c>
       <c r="U43" t="n">
-        <v>1241.218965014881</v>
+        <v>1170.542501370604</v>
       </c>
       <c r="V43" t="n">
-        <v>986.5344768089939</v>
+        <v>1170.542501370604</v>
       </c>
       <c r="W43" t="n">
-        <v>697.1173067720333</v>
+        <v>881.1253313336437</v>
       </c>
       <c r="X43" t="n">
-        <v>469.127755874016</v>
+        <v>653.1357804356263</v>
       </c>
       <c r="Y43" t="n">
-        <v>248.3351767304859</v>
+        <v>432.3432012920962</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1386.321313417295</v>
+        <v>1920.409918978288</v>
       </c>
       <c r="C44" t="n">
-        <v>1017.358796476883</v>
+        <v>1551.447402037876</v>
       </c>
       <c r="D44" t="n">
-        <v>659.0930978701329</v>
+        <v>1193.181703431126</v>
       </c>
       <c r="E44" t="n">
-        <v>273.3048452718886</v>
+        <v>807.3934508328816</v>
       </c>
       <c r="F44" t="n">
-        <v>273.3048452718886</v>
+        <v>396.4075460432741</v>
       </c>
       <c r="G44" t="n">
-        <v>273.3048452718886</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J44" t="n">
-        <v>242.8221127793899</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K44" t="n">
-        <v>576.6414864692364</v>
+        <v>387.7623555102109</v>
       </c>
       <c r="L44" t="n">
-        <v>1027.675699717645</v>
+        <v>838.7965687586197</v>
       </c>
       <c r="M44" t="n">
-        <v>1561.20760438957</v>
+        <v>1372.328473430544</v>
       </c>
       <c r="N44" t="n">
-        <v>2107.986421448352</v>
+        <v>1799.402253781706</v>
       </c>
       <c r="O44" t="n">
-        <v>2610.958892327689</v>
+        <v>2302.374724661043</v>
       </c>
       <c r="P44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="U44" t="n">
-        <v>2443.61861429206</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="V44" t="n">
-        <v>2112.555726948489</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="W44" t="n">
-        <v>1759.787071678375</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="X44" t="n">
-        <v>1386.321313417295</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="Y44" t="n">
-        <v>1386.321313417295</v>
+        <v>2307.00975904241</v>
       </c>
     </row>
     <row r="45">
@@ -7716,22 +7716,22 @@
         <v>299.8152679483409</v>
       </c>
       <c r="G45" t="n">
-        <v>163.452167780959</v>
+        <v>163.4521677809589</v>
       </c>
       <c r="H45" t="n">
-        <v>72.9502734188265</v>
+        <v>72.95027341882647</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J45" t="n">
         <v>147.6202513109818</v>
       </c>
       <c r="K45" t="n">
-        <v>385.884450291329</v>
+        <v>385.8844502913289</v>
       </c>
       <c r="L45" t="n">
-        <v>752.5826106039943</v>
+        <v>752.5826106039942</v>
       </c>
       <c r="M45" t="n">
         <v>1199.85893582631</v>
@@ -7801,10 +7801,10 @@
         <v>151.2686590020191</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J46" t="n">
-        <v>99.06561426730002</v>
+        <v>99.06561426729999</v>
       </c>
       <c r="K46" t="n">
         <v>303.0527972161764</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,10 +8216,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8228,13 +8228,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>342.6067970174433</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050814</v>
+        <v>74.01734528517878</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8471,7 +8471,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>130.9032309267717</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617263471</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>167.9634363311153</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9413,7 +9413,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>105.1996354507086</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,19 +9875,19 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>201.9664098701115</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>258.6211785616922</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10124,7 +10124,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10349,22 +10349,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>317.5146261106144</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>281.5523484567036</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>44.39260901196462</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,25 +10823,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>366.152513795259</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>169.7219265454424</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11057,16 +11057,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11075,10 +11075,10 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>169.7219265454442</v>
+        <v>197.055898623183</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -22550,10 +22550,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>254.8519103109223</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,10 +22562,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -22610,7 +22610,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>79.2024603475752</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22723,10 +22723,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>84.53410402016942</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,22 +22750,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22781,28 +22781,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,25 +22829,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>100.7716814369142</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22954,16 +22954,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,16 +22984,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>58.35886639452337</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23002,7 +23002,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>157.4983735401875</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23018,16 +23018,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>275.8288588064481</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23036,7 +23036,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23072,22 +23072,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>3.205644784667584</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23176,16 +23176,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -23197,10 +23197,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>18.62755109112871</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23224,10 +23224,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>100.2484375729293</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -23245,7 +23245,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>277.2566436803264</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>75.40478134959579</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>71.94073581801172</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>21.59472895491427</v>
       </c>
     </row>
     <row r="14">
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.2472738090438</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>126.0900396838151</v>
       </c>
     </row>
     <row r="15">
@@ -23738,19 +23738,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>255.180547410985</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,16 +23780,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1367138401498948</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>166.0966748466212</v>
+        <v>190.3966965679711</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>24.8587461061212</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,16 +24175,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>83.32522828944155</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>105.074288727014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>3.556976973656788</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24649,7 +24649,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>3.556976973656532</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24886,25 +24886,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>172.2573809594887</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>21.59472895491405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>142.2354048423647</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,16 +25126,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25157,7 +25157,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>273.5440258590919</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25202,13 +25202,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>164.3562640709149</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>21.5947289549143</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>176.159915019995</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25403,13 +25403,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>4.050886359713445</v>
+        <v>198.8069943658856</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,13 +25439,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.14213605696602</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25567,7 +25567,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>21.59472895491426</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.050886359713388</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25688,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>4.050886359715378</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>162.5760987035352</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25792,13 +25792,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>18.96245366221336</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25874,13 +25874,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>71.88180707277292</v>
       </c>
       <c r="H44" t="n">
-        <v>77.43951957031157</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -25919,19 +25919,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>764829.5403202326</v>
+        <v>766138.2551272399</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>823272.5892503086</v>
+        <v>823272.5892503085</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>823272.5892503086</v>
+        <v>823272.5892503088</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>980765.2139519756</v>
+        <v>980765.2139519757</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>980765.2139519756</v>
+        <v>980765.2139519757</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>980765.2139519756</v>
+        <v>980765.2139519757</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>912619.956385438</v>
+        <v>912619.9563854377</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>912619.9563854379</v>
+        <v>912619.9563854377</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>765031.3019140614</v>
+        <v>765031.3019140612</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318067.8710173335</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="C2" t="n">
-        <v>318067.8710173335</v>
+        <v>328930.1971346176</v>
       </c>
       <c r="D2" t="n">
-        <v>328930.1971346178</v>
+        <v>328930.1971346177</v>
       </c>
       <c r="E2" t="n">
-        <v>375096.8088680127</v>
+        <v>375096.8088680128</v>
       </c>
       <c r="F2" t="n">
         <v>375096.8088680127</v>
@@ -26341,19 +26341,19 @@
         <v>436789.9655756816</v>
       </c>
       <c r="L2" t="n">
-        <v>436789.9655756817</v>
+        <v>436789.9655756815</v>
       </c>
       <c r="M2" t="n">
+        <v>410096.0422132349</v>
+      </c>
+      <c r="N2" t="n">
         <v>410096.0422132348</v>
-      </c>
-      <c r="N2" t="n">
-        <v>410096.042213235</v>
       </c>
       <c r="O2" t="n">
         <v>410096.0422132348</v>
       </c>
       <c r="P2" t="n">
-        <v>348402.8855055661</v>
+        <v>348402.885505566</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>196446.3877966352</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>445640.2295734512</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>69280.52355892843</v>
+        <v>71376.38478147393</v>
       </c>
       <c r="C4" t="n">
-        <v>69280.52355892843</v>
+        <v>48993.41451395675</v>
       </c>
       <c r="D4" t="n">
-        <v>47559.7895538599</v>
+        <v>48993.41451395674</v>
       </c>
       <c r="E4" t="n">
-        <v>5356.477108136404</v>
+        <v>5500.795347005323</v>
       </c>
       <c r="F4" t="n">
-        <v>5356.477108136404</v>
+        <v>5500.795347005323</v>
       </c>
       <c r="G4" t="n">
-        <v>5356.477108136404</v>
+        <v>5500.795347005323</v>
       </c>
       <c r="H4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="I4" t="n">
-        <v>27740.54210219666</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="J4" t="n">
-        <v>27740.54210219667</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="K4" t="n">
-        <v>27740.54210219668</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="L4" t="n">
-        <v>27740.54210219669</v>
+        <v>28561.83935289574</v>
       </c>
       <c r="M4" t="n">
-        <v>18055.21317142413</v>
+        <v>18583.58934587792</v>
       </c>
       <c r="N4" t="n">
-        <v>18055.21317142414</v>
+        <v>18583.58934587791</v>
       </c>
       <c r="O4" t="n">
-        <v>18055.21317142415</v>
+        <v>18583.5893458779</v>
       </c>
       <c r="P4" t="n">
-        <v>5282.197331409225</v>
+        <v>5426.515570278142</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="D5" t="n">
         <v>87562.0451708468</v>
@@ -26479,7 +26479,7 @@
         <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>74306.34056139328</v>
@@ -26494,22 +26494,22 @@
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>86830.97594873125</v>
+        <v>86830.97594873124</v>
       </c>
       <c r="N5" t="n">
-        <v>86830.97594873125</v>
+        <v>86830.97594873123</v>
       </c>
       <c r="O5" t="n">
-        <v>86830.97594873125</v>
+        <v>86830.97594873123</v>
       </c>
       <c r="P5" t="n">
-        <v>64753.7982564109</v>
+        <v>64753.79825641087</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-424039.6098195488</v>
+        <v>-426135.4710420945</v>
       </c>
       <c r="C6" t="n">
-        <v>165928.2693949956</v>
+        <v>-4071.650346821116</v>
       </c>
       <c r="D6" t="n">
-        <v>9052.083861799532</v>
+        <v>192374.7374498142</v>
       </c>
       <c r="E6" t="n">
-        <v>-150206.2383749681</v>
+        <v>-150350.556613837</v>
       </c>
       <c r="F6" t="n">
-        <v>295433.991198483</v>
+        <v>295289.6729596141</v>
       </c>
       <c r="G6" t="n">
-        <v>295433.991198483</v>
+        <v>295289.6729596141</v>
       </c>
       <c r="H6" t="n">
-        <v>214695.1612068228</v>
+        <v>213873.8639561237</v>
       </c>
       <c r="I6" t="n">
-        <v>312665.9052197713</v>
+        <v>311844.6079690722</v>
       </c>
       <c r="J6" t="n">
-        <v>136242.6860271783</v>
+        <v>135421.3887764793</v>
       </c>
       <c r="K6" t="n">
-        <v>312665.9052197713</v>
+        <v>311844.6079690722</v>
       </c>
       <c r="L6" t="n">
-        <v>312665.9052197713</v>
+        <v>311844.6079690722</v>
       </c>
       <c r="M6" t="n">
-        <v>305209.8530930795</v>
+        <v>304681.4769186257</v>
       </c>
       <c r="N6" t="n">
-        <v>305209.8530930796</v>
+        <v>304681.4769186257</v>
       </c>
       <c r="O6" t="n">
-        <v>305209.8530930794</v>
+        <v>304681.4769186257</v>
       </c>
       <c r="P6" t="n">
-        <v>278366.8899177461</v>
+        <v>278222.571678877</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26799,7 +26799,7 @@
         <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022925</v>
@@ -26829,7 +26829,7 @@
         <v>1037.398747957193</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545554</v>
       </c>
     </row>
   </sheetData>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>496.3006002552332</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -33974,7 +33974,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138796</v>
@@ -34220,7 +34220,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
         <v>557.708647897025</v>
@@ -34366,7 +34366,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K44" t="n">
         <v>557.281137600381</v>
@@ -34378,13 +34378,13 @@
         <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>660.8007205169565</v>
       </c>
       <c r="O44" t="n">
         <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>318.2938025133848</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
         <v>222.3056898744495</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>514.4947013780085</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730079</v>
+        <v>212.6331008565868</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35191,7 +35191,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>166.2407258980799</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35258,10 +35258,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348618</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>368.6268117378473</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -36124,7 +36124,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
@@ -36133,7 +36133,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>442.3909220061091</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36370,7 +36370,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36379,7 +36379,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36595,19 +36595,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>539.157696425512</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>797.542294391919</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36835,7 +36835,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
@@ -36844,7 +36844,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -37069,22 +37069,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>654.7059126660149</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>618.7436350121041</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
@@ -37321,13 +37321,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>443.1545952313365</v>
       </c>
       <c r="Q35" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37543,25 +37543,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>918.4543492081705</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>420.5162313491618</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -37622,7 +37622,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340054</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
@@ -37795,10 +37795,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>420.5162313491637</v>
+        <v>447.8502034269025</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -37868,7 +37868,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525806</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38026,13 +38026,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>431.3876569203657</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>87.06080675811525</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
